--- a/resources/excelfiles/AppilloTestControlOne.xlsx
+++ b/resources/excelfiles/AppilloTestControlOne.xlsx
@@ -23,7 +23,7 @@
     <t>InvocationCount</t>
   </si>
   <si>
-    <t>Priorty</t>
+    <t>Priority</t>
   </si>
   <si>
     <t>loginWithCredentials</t>
@@ -61,7 +61,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -69,16 +69,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="9"/>
+      <b val="true"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="darkGray"/>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="52"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="52"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -86,11 +102,81 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <top style="thick"/>
+    </border>
+    <border>
+      <top style="thick">
+        <color indexed="8"/>
+      </top>
+    </border>
+    <border>
+      <top style="thick">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thick"/>
+    </border>
+    <border>
+      <top style="thick">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thick"/>
+      <top style="thick">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="8"/>
+      </left>
+      <top style="thick">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="8"/>
+      </left>
+      <right style="thick"/>
+      <top style="thick">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="8"/>
+      </left>
+      <right style="thick">
+        <color indexed="8"/>
+      </right>
+      <top style="thick">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="8"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
 </styleSheet>
@@ -103,74 +189,80 @@
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="39.0625" customWidth="true"/>
+    <col min="2" max="2" width="39.0625" customWidth="true"/>
+    <col min="3" max="3" width="39.0625" customWidth="true"/>
+    <col min="4" max="4" width="39.0625" customWidth="true"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="0">
+      <c r="A1" t="s" s="1">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s" s="1">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" t="s" s="1">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="D1" t="s" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s" s="0">
+    <row r="2" ht="50.0" customHeight="true">
+      <c r="A2" t="s" s="2">
         <v>4</v>
       </c>
-      <c r="B2" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s" s="0">
+      <c r="B2" t="s" s="2">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s" s="2">
         <v>6</v>
       </c>
-      <c r="D2" t="s" s="0">
+      <c r="D2" t="s" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="s" s="0">
+    <row r="3" ht="50.0" customHeight="true">
+      <c r="A3" t="s" s="2">
         <v>8</v>
       </c>
-      <c r="B3" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s" s="0">
+      <c r="B3" t="s" s="2">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s" s="2">
         <v>6</v>
       </c>
-      <c r="D3" t="s" s="0">
+      <c r="D3" t="s" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="s" s="0">
+    <row r="4" ht="50.0" customHeight="true">
+      <c r="A4" t="s" s="2">
         <v>9</v>
       </c>
-      <c r="B4" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s" s="0">
+      <c r="B4" t="s" s="2">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s" s="2">
         <v>10</v>
       </c>
-      <c r="D4" t="s" s="0">
+      <c r="D4" t="s" s="2">
         <v>11</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="s" s="0">
+    <row r="5" ht="50.0" customHeight="true">
+      <c r="A5" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="B5" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s" s="0">
+      <c r="B5" t="s" s="2">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s" s="2">
         <v>11</v>
       </c>
-      <c r="D5" t="s" s="0">
+      <c r="D5" t="s" s="2">
         <v>13</v>
       </c>
     </row>
